--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>FJ2308110001</t>
+          <t>FJ2308240007</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>FJ2304210142</t>
+          <t>FJ2308240008</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>FJ2304210143</t>
+          <t>AP2308230021</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>FJ2304210144</t>
+          <t>AP2308230022</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="6" ht="16.5" customHeight="1" s="8">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>FJ2304210145</t>
+          <t>AP2308230023</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="7" ht="16.5" customHeight="1" s="8">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>FJ2304210146</t>
+          <t>AP2308230026</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="8" ht="16.5" customHeight="1" s="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>FJ2304210147</t>
+          <t>AP2308230024</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1050,7 +1050,7 @@
     <row r="9" ht="16.5" customHeight="1" s="8">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>FJ2304210148</t>
+          <t>AP2308230025</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1120,6 +1120,11 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="8">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>AP2308230027</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>14.61</t>
@@ -1187,6 +1192,11 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="8">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>AP2308230028</t>
+        </is>
+      </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>14.61</t>
@@ -1254,6 +1264,11 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="8">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>AP2308230029</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>14.61</t>
@@ -1321,6 +1336,11 @@
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="8">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>AP2308230030</t>
+        </is>
+      </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>14.61</t>
@@ -1388,6 +1408,11 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="8">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>AP2308230031</t>
+        </is>
+      </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>14.61</t>
@@ -1455,6 +1480,11 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="8">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>AP2308230032</t>
+        </is>
+      </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
           <t>14.61</t>

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>FJ2308240007</t>
+          <t>FJ2309050002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>FJ2309050002</t>
+          <t>AP2309080001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>FJ2308240008</t>
+          <t>AP2309080004</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2308230021</t>
+          <t>AP2309080002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2308230022</t>
+          <t>AP2309080003</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2309080001</t>
+          <t>AP2309080014</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2309080004</t>
+          <t>AP2309080015</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2309080002</t>
+          <t>AP2309080016</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2309080003</t>
+          <t>AP2309080017</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2309080014</t>
+          <t>AP2309110001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2309080015</t>
+          <t>AP2309110002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2309080016</t>
+          <t>AP2309110003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2309080017</t>
+          <t>AP2309110004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2309110001</t>
+          <t>AP2309120006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2309110002</t>
+          <t>AP2309120007</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2309110003</t>
+          <t>AP2309120008</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2309110004</t>
+          <t>AP2309120005</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2309120006</t>
+          <t>AP2309150001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2309120007</t>
+          <t>AP2309150002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2309120008</t>
+          <t>AP2309150003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2309120005</t>
+          <t>AP2309150004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2309150001</t>
+          <t>AP2309180004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2309150002</t>
+          <t>AP2309180005</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2309150003</t>
+          <t>AP2309180006</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2309150004</t>
+          <t>AP2309180007</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2309080001</t>
+          <t>FJ2309220010</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2309080004</t>
+          <t>FJ2309220011</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>FJ2309220010</t>
+          <t>AP2401150003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>FJ2309220011</t>
+          <t>AP2401150004</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2309080002</t>
+          <t>AP2401150002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2309080003</t>
+          <t>AP2401150001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2401150003</t>
+          <t>AP2310270021</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2401150004</t>
+          <t>AP2310270023</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2401150002</t>
+          <t>AP2310270024</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2401150001</t>
+          <t>AP2310270022</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2310270021</t>
+          <t>AP2401160004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2310270023</t>
+          <t>AP2401160001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2310270024</t>
+          <t>AP2401160002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2310270022</t>
+          <t>AP2401160003</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2401160004</t>
+          <t>AP2404290052</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2401160001</t>
+          <t>AP2404290053</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2401160002</t>
+          <t>AP2404290050</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2401160003</t>
+          <t>AP2404290051</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="6" ht="16.5" customHeight="1" s="8">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>AP2308230023</t>
+          <t>AP2404120019</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">

--- a/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-单梯度SR样本导入模板E.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="16.5" customHeight="1" s="8">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AP2404290052</t>
+          <t>AP2405210003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="3" ht="16.5" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>AP2404290053</t>
+          <t>AP2405210004</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="4" ht="16.5" customHeight="1" s="8">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AP2404290050</t>
+          <t>AP2405210001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="5" ht="16.5" customHeight="1" s="8">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>AP2404290051</t>
+          <t>AP2405210002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
